--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H2">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J2">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N2">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P2">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q2">
-        <v>157.2066925223727</v>
+        <v>263.23234552181</v>
       </c>
       <c r="R2">
-        <v>157.2066925223727</v>
+        <v>2369.09110969629</v>
       </c>
       <c r="S2">
-        <v>0.001025871085771354</v>
+        <v>0.00154234627252581</v>
       </c>
       <c r="T2">
-        <v>0.001025871085771354</v>
+        <v>0.00154234627252581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H3">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J3">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N3">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P3">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q3">
-        <v>414.1039592826442</v>
+        <v>499.9379573715845</v>
       </c>
       <c r="R3">
-        <v>414.1039592826442</v>
+        <v>4499.44161634426</v>
       </c>
       <c r="S3">
-        <v>0.002702284944205193</v>
+        <v>0.002929265563917346</v>
       </c>
       <c r="T3">
-        <v>0.002702284944205193</v>
+        <v>0.002929265563917346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H4">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J4">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N4">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P4">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q4">
-        <v>1718.655959300445</v>
+        <v>2409.30254662125</v>
       </c>
       <c r="R4">
-        <v>1718.655959300445</v>
+        <v>21683.72291959125</v>
       </c>
       <c r="S4">
-        <v>0.01121529514262911</v>
+        <v>0.01411672564327905</v>
       </c>
       <c r="T4">
-        <v>0.01121529514262911</v>
+        <v>0.01411672564327905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H5">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J5">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N5">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P5">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q5">
-        <v>2812.476602990369</v>
+        <v>3421.130180423736</v>
       </c>
       <c r="R5">
-        <v>2812.476602990369</v>
+        <v>30790.17162381363</v>
       </c>
       <c r="S5">
-        <v>0.01835315265605279</v>
+        <v>0.02004528497872201</v>
       </c>
       <c r="T5">
-        <v>0.01835315265605279</v>
+        <v>0.02004528497872201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H6">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J6">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N6">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P6">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q6">
-        <v>3101.761111859934</v>
+        <v>3771.354735181322</v>
       </c>
       <c r="R6">
-        <v>3101.761111859934</v>
+        <v>33942.1926166319</v>
       </c>
       <c r="S6">
-        <v>0.0202409133388152</v>
+        <v>0.0220973410644078</v>
       </c>
       <c r="T6">
-        <v>0.0202409133388152</v>
+        <v>0.0220973410644078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.9993424676049</v>
+        <v>32.52516566666667</v>
       </c>
       <c r="H7">
-        <v>26.9993424676049</v>
+        <v>97.575497</v>
       </c>
       <c r="I7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="J7">
-        <v>0.05602771039457778</v>
+        <v>0.06370711489344116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N7">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P7">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q7">
-        <v>381.6025682021289</v>
+        <v>507.9399612547262</v>
       </c>
       <c r="R7">
-        <v>381.6025682021289</v>
+        <v>4571.459651292535</v>
       </c>
       <c r="S7">
-        <v>0.002490193227104137</v>
+        <v>0.002976151370589149</v>
       </c>
       <c r="T7">
-        <v>0.002490193227104137</v>
+        <v>0.002976151370589148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H8">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J8">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N8">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P8">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q8">
-        <v>69.96126307768172</v>
+        <v>98.37885099483</v>
       </c>
       <c r="R8">
-        <v>69.96126307768172</v>
+        <v>885.4096589534701</v>
       </c>
       <c r="S8">
-        <v>0.0004565405948301001</v>
+        <v>0.0005764270869769545</v>
       </c>
       <c r="T8">
-        <v>0.0004565405948301001</v>
+        <v>0.0005764270869769545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H9">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J9">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N9">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P9">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q9">
-        <v>184.2875489080062</v>
+        <v>186.843762370547</v>
       </c>
       <c r="R9">
-        <v>184.2875489080062</v>
+        <v>1681.593861334923</v>
       </c>
       <c r="S9">
-        <v>0.001202590455018273</v>
+        <v>0.001094765842190296</v>
       </c>
       <c r="T9">
-        <v>0.001202590455018273</v>
+        <v>0.001094765842190296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H10">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J10">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N10">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P10">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q10">
-        <v>764.8487464459064</v>
+        <v>900.4380360842771</v>
       </c>
       <c r="R10">
-        <v>764.8487464459064</v>
+        <v>8103.942324758495</v>
       </c>
       <c r="S10">
-        <v>0.004991112028234144</v>
+        <v>0.005275898924359119</v>
       </c>
       <c r="T10">
-        <v>0.004991112028234144</v>
+        <v>0.005275898924359118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H11">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J11">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N11">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P11">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q11">
-        <v>1251.628746617332</v>
+        <v>1278.592323396429</v>
       </c>
       <c r="R11">
-        <v>1251.628746617332</v>
+        <v>11507.33091056786</v>
       </c>
       <c r="S11">
-        <v>0.008167653174766903</v>
+        <v>0.007491602523851709</v>
       </c>
       <c r="T11">
-        <v>0.008167653174766903</v>
+        <v>0.007491602523851709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H12">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J12">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N12">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P12">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q12">
-        <v>1380.368237949365</v>
+        <v>1409.483111984462</v>
       </c>
       <c r="R12">
-        <v>1380.368237949365</v>
+        <v>12685.34800786016</v>
       </c>
       <c r="S12">
-        <v>0.009007758132357364</v>
+        <v>0.008258525446969414</v>
       </c>
       <c r="T12">
-        <v>0.009007758132357364</v>
+        <v>0.008258525446969414</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.0154433058358</v>
+        <v>12.155757</v>
       </c>
       <c r="H13">
-        <v>12.0154433058358</v>
+        <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="J13">
-        <v>0.02493385824523583</v>
+        <v>0.02380950848190151</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N13">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O13">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P13">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q13">
-        <v>169.8235440028019</v>
+        <v>189.834382486472</v>
       </c>
       <c r="R13">
-        <v>169.8235440028019</v>
+        <v>1708.509442378248</v>
       </c>
       <c r="S13">
-        <v>0.001108203860029052</v>
+        <v>0.001112288657554016</v>
       </c>
       <c r="T13">
-        <v>0.001108203860029052</v>
+        <v>0.001112288657554016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H14">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J14">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N14">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O14">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P14">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q14">
-        <v>788.2917435350743</v>
+        <v>1222.61522324494</v>
       </c>
       <c r="R14">
-        <v>788.2917435350743</v>
+        <v>11003.53700920446</v>
       </c>
       <c r="S14">
-        <v>0.005144092111281032</v>
+        <v>0.007163618242154459</v>
       </c>
       <c r="T14">
-        <v>0.005144092111281032</v>
+        <v>0.007163618242154459</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H15">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J15">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N15">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P15">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q15">
-        <v>2076.468417661269</v>
+        <v>2322.023747305157</v>
       </c>
       <c r="R15">
-        <v>2076.468417661269</v>
+        <v>20898.21372574641</v>
       </c>
       <c r="S15">
-        <v>0.01355024316088156</v>
+        <v>0.01360533662484798</v>
       </c>
       <c r="T15">
-        <v>0.01355024316088156</v>
+        <v>0.01360533662484798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H16">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J16">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N16">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O16">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P16">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q16">
-        <v>8617.968363535703</v>
+        <v>11190.30400714141</v>
       </c>
       <c r="R16">
-        <v>8617.968363535703</v>
+        <v>100712.7360642727</v>
       </c>
       <c r="S16">
-        <v>0.05623758391192769</v>
+        <v>0.06556688023894529</v>
       </c>
       <c r="T16">
-        <v>0.05623758391192769</v>
+        <v>0.06556688023894527</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H17">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J17">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N17">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O17">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P17">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q17">
-        <v>14102.78436274182</v>
+        <v>15889.86274083179</v>
       </c>
       <c r="R17">
-        <v>14102.78436274182</v>
+        <v>143008.7646674861</v>
       </c>
       <c r="S17">
-        <v>0.09202940711030023</v>
+        <v>0.09310280817004718</v>
       </c>
       <c r="T17">
-        <v>0.09202940711030023</v>
+        <v>0.09310280817004717</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H18">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J18">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N18">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O18">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P18">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q18">
-        <v>15553.36249154524</v>
+        <v>17516.52405159129</v>
       </c>
       <c r="R18">
-        <v>15553.36249154524</v>
+        <v>157648.7164643216</v>
       </c>
       <c r="S18">
-        <v>0.1014953282877969</v>
+        <v>0.1026338367537058</v>
       </c>
       <c r="T18">
-        <v>0.1014953282877969</v>
+        <v>0.1026338367537058</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>135.384559057878</v>
+        <v>151.0671593333333</v>
       </c>
       <c r="H19">
-        <v>135.384559057878</v>
+        <v>453.201478</v>
       </c>
       <c r="I19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="J19">
-        <v>0.2809433924508936</v>
+        <v>0.2958955835892216</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N19">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O19">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P19">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q19">
-        <v>1913.494578373043</v>
+        <v>2359.190045180141</v>
       </c>
       <c r="R19">
-        <v>1913.494578373043</v>
+        <v>21232.71040662126</v>
       </c>
       <c r="S19">
-        <v>0.01248673786870614</v>
+        <v>0.01382310355952097</v>
       </c>
       <c r="T19">
-        <v>0.01248673786870614</v>
+        <v>0.01382310355952097</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H20">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I20">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J20">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N20">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O20">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P20">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q20">
-        <v>932.2484723152965</v>
+        <v>1314.81072870462</v>
       </c>
       <c r="R20">
-        <v>932.2484723152965</v>
+        <v>11833.29655834158</v>
       </c>
       <c r="S20">
-        <v>0.006083498972963093</v>
+        <v>0.007703815511253323</v>
       </c>
       <c r="T20">
-        <v>0.006083498972963093</v>
+        <v>0.007703815511253325</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H21">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I21">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J21">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N21">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O21">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P21">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q21">
-        <v>2455.670157719403</v>
+        <v>2497.123933366958</v>
       </c>
       <c r="R21">
-        <v>2455.670157719403</v>
+        <v>22474.11540030262</v>
       </c>
       <c r="S21">
-        <v>0.01602476949661287</v>
+        <v>0.01463129382154294</v>
       </c>
       <c r="T21">
-        <v>0.01602476949661287</v>
+        <v>0.01463129382154294</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H22">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I22">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J22">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N22">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O22">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P22">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q22">
-        <v>10191.76961734884</v>
+        <v>12034.14736404618</v>
       </c>
       <c r="R22">
-        <v>10191.76961734884</v>
+        <v>108307.3262764156</v>
       </c>
       <c r="S22">
-        <v>0.06650761233840728</v>
+        <v>0.07051117632663829</v>
       </c>
       <c r="T22">
-        <v>0.06650761233840728</v>
+        <v>0.07051117632663829</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H23">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I23">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J23">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N23">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O23">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P23">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q23">
-        <v>16678.21499512273</v>
+        <v>17088.09248574511</v>
       </c>
       <c r="R23">
-        <v>16678.21499512273</v>
+        <v>153792.8323717059</v>
       </c>
       <c r="S23">
-        <v>0.1088356879166559</v>
+        <v>0.1001235455989263</v>
       </c>
       <c r="T23">
-        <v>0.1088356879166559</v>
+        <v>0.1001235455989263</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H24">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I24">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J24">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N24">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O24">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P24">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q24">
-        <v>18393.69566029704</v>
+        <v>18837.41778670027</v>
       </c>
       <c r="R24">
-        <v>18393.69566029704</v>
+        <v>169536.7600803024</v>
       </c>
       <c r="S24">
-        <v>0.1200302622974615</v>
+        <v>0.1103732941699648</v>
       </c>
       <c r="T24">
-        <v>0.1200302622974615</v>
+        <v>0.1103732941699648</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>160.10829669583</v>
+        <v>162.458898</v>
       </c>
       <c r="H25">
-        <v>160.10829669583</v>
+        <v>487.376694</v>
       </c>
       <c r="I25">
-        <v>0.3322488793868345</v>
+        <v>0.3182086076491469</v>
       </c>
       <c r="J25">
-        <v>0.3322488793868345</v>
+        <v>0.318208607649147</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N25">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O25">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P25">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q25">
-        <v>2262.934265266094</v>
+        <v>2537.092883747408</v>
       </c>
       <c r="R25">
-        <v>2262.934265266094</v>
+        <v>22833.83595372667</v>
       </c>
       <c r="S25">
-        <v>0.0147670483647339</v>
+        <v>0.01486548222082136</v>
       </c>
       <c r="T25">
-        <v>0.0147670483647339</v>
+        <v>0.01486548222082136</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H26">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J26">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N26">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O26">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P26">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q26">
-        <v>803.9946108819079</v>
+        <v>1154.02244351464</v>
       </c>
       <c r="R26">
-        <v>803.9946108819079</v>
+        <v>10386.20199163176</v>
       </c>
       <c r="S26">
-        <v>0.005246563051394012</v>
+        <v>0.006761715436746959</v>
       </c>
       <c r="T26">
-        <v>0.005246563051394012</v>
+        <v>0.006761715436746959</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H27">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J27">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N27">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O27">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P27">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q27">
-        <v>2117.831920932534</v>
+        <v>2191.750493382553</v>
       </c>
       <c r="R27">
-        <v>2117.831920932534</v>
+        <v>19725.75444044298</v>
       </c>
       <c r="S27">
-        <v>0.01382016565165695</v>
+        <v>0.01284203199676729</v>
       </c>
       <c r="T27">
-        <v>0.01382016565165695</v>
+        <v>0.01284203199676729</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H28">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J28">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N28">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O28">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P28">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q28">
-        <v>8789.639340837763</v>
+        <v>10562.49073990617</v>
       </c>
       <c r="R28">
-        <v>8789.639340837763</v>
+        <v>95062.41665915555</v>
       </c>
       <c r="S28">
-        <v>0.0573578434190427</v>
+        <v>0.06188836022027878</v>
       </c>
       <c r="T28">
-        <v>0.0573578434190427</v>
+        <v>0.06188836022027878</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H29">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J29">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N29">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O29">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P29">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q29">
-        <v>14383.71354141878</v>
+        <v>14998.3886006409</v>
       </c>
       <c r="R29">
-        <v>14383.71354141878</v>
+        <v>134985.4974057681</v>
       </c>
       <c r="S29">
-        <v>0.09386264408596633</v>
+        <v>0.08787943102598474</v>
       </c>
       <c r="T29">
-        <v>0.09386264408596633</v>
+        <v>0.08787943102598472</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H30">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J30">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N30">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O30">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P30">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q30">
-        <v>15863.18736286344</v>
+        <v>16533.78880253854</v>
       </c>
       <c r="R30">
-        <v>15863.18736286344</v>
+        <v>148804.0992228469</v>
       </c>
       <c r="S30">
-        <v>0.1035171275638865</v>
+        <v>0.09687573721144929</v>
       </c>
       <c r="T30">
-        <v>0.1035171275638865</v>
+        <v>0.09687573721144929</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>138.08143593009</v>
+        <v>142.5917893333333</v>
       </c>
       <c r="H31">
-        <v>138.08143593009</v>
+        <v>427.775368</v>
       </c>
       <c r="I31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="J31">
-        <v>0.2865398189767405</v>
+        <v>0.2792948573734662</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N31">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O31">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P31">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q31">
-        <v>1951.611622956474</v>
+        <v>2226.831638353287</v>
       </c>
       <c r="R31">
-        <v>1951.611622956474</v>
+        <v>20041.48474517958</v>
       </c>
       <c r="S31">
-        <v>0.012735475204794</v>
+        <v>0.01304758148223911</v>
       </c>
       <c r="T31">
-        <v>0.012735475204794</v>
+        <v>0.0130475814822391</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H32">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J32">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.82261189178947</v>
+        <v>8.09319</v>
       </c>
       <c r="N32">
-        <v>5.82261189178947</v>
+        <v>24.27957</v>
       </c>
       <c r="O32">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="P32">
-        <v>0.01831006618950889</v>
+        <v>0.02420995323843489</v>
       </c>
       <c r="Q32">
-        <v>54.17115781687574</v>
+        <v>78.85480976379999</v>
       </c>
       <c r="R32">
-        <v>54.17115781687574</v>
+        <v>709.6932878742</v>
       </c>
       <c r="S32">
-        <v>0.0003535003732692927</v>
+        <v>0.000462030688777386</v>
       </c>
       <c r="T32">
-        <v>0.0003535003732692927</v>
+        <v>0.0004620306887773861</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H33">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J33">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.3375571934578</v>
+        <v>15.37080433333333</v>
       </c>
       <c r="N33">
-        <v>15.3375571934578</v>
+        <v>46.112413</v>
       </c>
       <c r="O33">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220903</v>
       </c>
       <c r="P33">
-        <v>0.04823122210731483</v>
+        <v>0.04598019497220902</v>
       </c>
       <c r="Q33">
-        <v>142.6942490231498</v>
+        <v>149.7631776371978</v>
       </c>
       <c r="R33">
-        <v>142.6942490231498</v>
+        <v>1347.86859873478</v>
       </c>
       <c r="S33">
-        <v>0.0009311683989399748</v>
+        <v>0.0008775011229431695</v>
       </c>
       <c r="T33">
-        <v>0.0009311683989399748</v>
+        <v>0.0008775011229431695</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H34">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J34">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.6554746235976</v>
+        <v>74.07502766666667</v>
       </c>
       <c r="N34">
-        <v>63.6554746235976</v>
+        <v>222.225083</v>
       </c>
       <c r="O34">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725382</v>
       </c>
       <c r="P34">
-        <v>0.2001740757144076</v>
+        <v>0.2215878974725381</v>
       </c>
       <c r="Q34">
-        <v>592.2240440935979</v>
+        <v>721.7391677327756</v>
       </c>
       <c r="R34">
-        <v>592.2240440935979</v>
+        <v>6495.652509594981</v>
       </c>
       <c r="S34">
-        <v>0.00386462887416666</v>
+        <v>0.004228856119037601</v>
       </c>
       <c r="T34">
-        <v>0.00386462887416666</v>
+        <v>0.004228856119037602</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H35">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J35">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>104.168336927646</v>
+        <v>105.184097</v>
       </c>
       <c r="N35">
-        <v>104.168336927646</v>
+        <v>315.552291</v>
       </c>
       <c r="O35">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="P35">
-        <v>0.3275727765207582</v>
+        <v>0.3146475085592949</v>
       </c>
       <c r="Q35">
-        <v>969.1388545381394</v>
+        <v>1024.845822118607</v>
       </c>
       <c r="R35">
-        <v>969.1388545381394</v>
+        <v>9223.612399067461</v>
       </c>
       <c r="S35">
-        <v>0.006324231577016082</v>
+        <v>0.006004836261762962</v>
       </c>
       <c r="T35">
-        <v>0.006324231577016082</v>
+        <v>0.006004836261762962</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H36">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J36">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>114.88283892771</v>
+        <v>115.9518993333333</v>
       </c>
       <c r="N36">
-        <v>114.88283892771</v>
+        <v>347.855698</v>
       </c>
       <c r="O36">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="P36">
-        <v>0.3612661162890222</v>
+        <v>0.3468582920662569</v>
       </c>
       <c r="Q36">
-        <v>1068.822122041019</v>
+        <v>1129.760324875764</v>
       </c>
       <c r="R36">
-        <v>1068.822122041019</v>
+        <v>10167.84292388188</v>
       </c>
       <c r="S36">
-        <v>0.006974726668704765</v>
+        <v>0.006619557419759838</v>
       </c>
       <c r="T36">
-        <v>0.006974726668704765</v>
+        <v>0.006619557419759839</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.30358382520104</v>
+        <v>9.743353333333333</v>
       </c>
       <c r="H37">
-        <v>9.30358382520104</v>
+        <v>29.23006</v>
       </c>
       <c r="I37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="J37">
-        <v>0.01930634054571784</v>
+        <v>0.01908432801282251</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.1337726524264</v>
+        <v>15.61682933333333</v>
       </c>
       <c r="N37">
-        <v>14.1337726524264</v>
+        <v>46.850488</v>
       </c>
       <c r="O37">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126616</v>
       </c>
       <c r="P37">
-        <v>0.0444457431789883</v>
+        <v>0.04671615369126615</v>
       </c>
       <c r="Q37">
-        <v>131.494738638183</v>
+        <v>152.1602861410311</v>
       </c>
       <c r="R37">
-        <v>131.494738638183</v>
+        <v>1369.44257526928</v>
       </c>
       <c r="S37">
-        <v>0.0008580846536210638</v>
+        <v>0.0008915464005415524</v>
       </c>
       <c r="T37">
-        <v>0.0008580846536210638</v>
+        <v>0.0008915464005415524</v>
       </c>
     </row>
   </sheetData>
